--- a/LaminateCosting.xlsx
+++ b/LaminateCosting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/254ab4912ef77ab4/Documents/Interior Estimates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9CAFB5-B994-47E0-A1D3-231D47EA3850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5A9CAFB5-B994-47E0-A1D3-231D47EA3850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DA5C8B-EAA9-46C9-8BE2-7C0AB0A06958}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47826349-3610-4517-8603-7C41F3BCEACD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>Room</t>
   </si>
@@ -105,9 +105,6 @@
     <t>TV Unit - Louvres</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Kridha</t>
   </si>
   <si>
@@ -243,12 +240,6 @@
     <t>7052 - HG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 722 HGL STEEL GREY/7052 - HG</t>
-  </si>
-  <si>
-    <t>722 HGL STEEL GREY/7052 - HG</t>
-  </si>
-  <si>
     <t>Cabinets</t>
   </si>
   <si>
@@ -256,6 +247,9 @@
   </si>
   <si>
     <t>2087-SF</t>
+  </si>
+  <si>
+    <t>Costing</t>
   </si>
 </sst>
 </file>
@@ -286,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,15 +297,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,7 +627,7 @@
   <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N28"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,43 +651,39 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="e">
-        <f t="shared" ref="N1:N25" si="0">E1*M1</f>
-        <v>#VALUE!</v>
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -700,22 +693,22 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f t="shared" ref="N1:N25" si="0">E2*M2</f>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -723,16 +716,16 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>20202</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>65</v>
+      <c r="L3" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="M3">
         <v>4900</v>
@@ -743,16 +736,16 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4">
         <v>900</v>
@@ -763,10 +756,10 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -778,8 +771,8 @@
       <c r="J5">
         <v>20209</v>
       </c>
-      <c r="L5" t="s">
-        <v>63</v>
+      <c r="L5" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="M5">
         <v>4700</v>
@@ -790,8 +783,8 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -799,24 +792,24 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M6">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
@@ -826,10 +819,10 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7">
         <v>760</v>
@@ -840,16 +833,16 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8">
         <v>760</v>
@@ -873,17 +866,17 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
+        <v>36</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -900,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10">
         <v>900</v>
@@ -926,7 +919,7 @@
       <c r="E11">
         <v>11</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>1627</v>
       </c>
       <c r="M11">
@@ -942,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -951,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M12">
         <v>760</v>
@@ -978,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13">
         <v>760</v>
@@ -992,10 +985,10 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
@@ -1005,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M14">
         <v>760</v>
@@ -1019,8 +1012,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -1028,21 +1021,21 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
@@ -1055,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16">
         <v>900</v>
@@ -1066,9 +1059,9 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1077,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17">
         <v>900</v>
@@ -1088,9 +1081,9 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1099,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18">
         <v>900</v>
@@ -1110,10 +1103,10 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
@@ -1123,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19">
         <v>760</v>
@@ -1137,16 +1130,16 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20">
         <v>900</v>
@@ -1170,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21">
         <v>900</v>
@@ -1185,7 +1178,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1194,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22">
         <v>760</v>
@@ -1212,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1221,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23">
         <v>760</v>
@@ -1245,10 +1238,10 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M24">
         <v>760</v>
@@ -1263,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1272,14 +1265,14 @@
         <v>2</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25">
-        <v>900</v>
+        <v>460</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -1295,23 +1288,23 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="L26" t="s">
-        <v>66</v>
+      <c r="L26" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>900</v>
+        <v>4800</v>
       </c>
       <c r="N26">
         <f>E26*M26</f>
-        <v>900</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1320,22 +1313,22 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>460</v>
       </c>
       <c r="N27">
         <f>E27*M27</f>
-        <v>900</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1344,14 +1337,14 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M28">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N28">
         <f>E28*M28</f>
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/LaminateCosting.xlsx
+++ b/LaminateCosting.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/254ab4912ef77ab4/Documents/Interior Estimates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5A9CAFB5-B994-47E0-A1D3-231D47EA3850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DA5C8B-EAA9-46C9-8BE2-7C0AB0A06958}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5A9CAFB5-B994-47E0-A1D3-231D47EA3850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3153CDD6-4F97-4BDC-84AD-2DDBCC072F99}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47826349-3610-4517-8603-7C41F3BCEACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$1:$M$28</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>Room</t>
   </si>
@@ -192,9 +195,6 @@
     <t>4035-SF</t>
   </si>
   <si>
-    <t>9053-UG</t>
-  </si>
-  <si>
     <t>Outside Panneling</t>
   </si>
   <si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Costing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -303,12 +306,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,6 +328,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,7 +642,7 @@
   <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,14 +691,14 @@
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -696,19 +711,18 @@
         <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2">
         <v>460</v>
       </c>
-      <c r="N2">
-        <f t="shared" ref="N1:N25" si="0">E2*M2</f>
-        <v>920</v>
+      <c r="N2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -724,20 +738,20 @@
       <c r="J3">
         <v>20202</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>64</v>
+      <c r="L3" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="M3">
         <v>4900</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N3:N25" si="0">E3*M3</f>
         <v>14700</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
         <v>46</v>
       </c>
@@ -745,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4">
         <v>900</v>
@@ -756,10 +770,10 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -771,8 +785,8 @@
       <c r="J5">
         <v>20209</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>62</v>
+      <c r="L5" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="M5">
         <v>4700</v>
@@ -783,8 +797,8 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -795,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6">
         <v>460</v>
@@ -806,10 +820,10 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
@@ -833,8 +847,8 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>46</v>
       </c>
@@ -868,8 +882,8 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>69</v>
+      <c r="L9" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="M9">
         <v>2800</v>
@@ -896,7 +910,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10">
         <v>900</v>
@@ -919,7 +933,7 @@
       <c r="E11">
         <v>11</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>1627</v>
       </c>
       <c r="M11">
@@ -985,10 +999,10 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
@@ -1012,8 +1026,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15">
         <v>460</v>
@@ -1035,7 +1049,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
@@ -1048,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16">
         <v>900</v>
@@ -1059,9 +1073,9 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1070,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M17">
         <v>900</v>
@@ -1081,9 +1095,9 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1092,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M18">
         <v>900</v>
@@ -1103,10 +1117,10 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
@@ -1130,8 +1144,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" t="s">
         <v>51</v>
       </c>
@@ -1139,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M20">
         <v>900</v>
@@ -1163,14 +1177,14 @@
         <v>3</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>900</v>
+        <v>760</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -1241,7 +1255,7 @@
         <v>45</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M24">
         <v>760</v>
@@ -1256,7 +1270,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1265,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M25">
         <v>460</v>
@@ -1288,8 +1302,8 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>65</v>
+      <c r="L26" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="M26">
         <v>4800</v>
@@ -1301,10 +1315,10 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1313,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M27">
         <v>460</v>
@@ -1325,10 +1339,10 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1337,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M28">
         <v>900</v>
@@ -1348,6 +1362,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="M1:M28" xr:uid="{0626FA9B-F146-45D4-964E-04B2E3C5CAAE}"/>
   <mergeCells count="11">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>

--- a/LaminateCosting.xlsx
+++ b/LaminateCosting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/254ab4912ef77ab4/Documents/Interior Estimates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5A9CAFB5-B994-47E0-A1D3-231D47EA3850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3153CDD6-4F97-4BDC-84AD-2DDBCC072F99}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{5A9CAFB5-B994-47E0-A1D3-231D47EA3850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B432E99-6A2E-4F53-B4A8-7B029C2715F9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47826349-3610-4517-8603-7C41F3BCEACD}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Room</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Costing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -339,6 +336,18 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -642,7 +651,7 @@
   <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,8 +725,9 @@
       <c r="M2">
         <v>460</v>
       </c>
-      <c r="N2" t="s">
-        <v>74</v>
+      <c r="N2">
+        <f t="shared" ref="N2:N25" si="0">E2*M2</f>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -745,7 +755,7 @@
         <v>4900</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N25" si="0">E3*M3</f>
+        <f t="shared" si="0"/>
         <v>14700</v>
       </c>
     </row>
